--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-desired-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-desired-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,40 +46,46 @@
     <t>die</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>collapse</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>drop</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>low</t>
@@ -91,118 +97,145 @@
     <t>emergency</t>
   </si>
   <si>
+    <t>isolation</t>
+  </si>
+  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>avoid</t>
+    <t>empty</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>check</t>
   </si>
 </sst>
 </file>
@@ -560,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +601,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -679,13 +712,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.918918918918919</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="L4">
         <v>32</v>
       </c>
-      <c r="K4">
-        <v>0.9666666666666667</v>
-      </c>
-      <c r="L4">
-        <v>116</v>
-      </c>
       <c r="M4">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +762,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9117647058823529</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +812,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,16 +833,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.9321148825065274</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>357</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>357</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +862,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8698630136986302</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C7">
-        <v>254</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>254</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.9302325581395349</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +912,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>252</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>252</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -929,13 +962,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8205128205128205</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.90625</v>
+        <v>0.9242819843342036</v>
       </c>
       <c r="L9">
-        <v>116</v>
+        <v>354</v>
       </c>
       <c r="M9">
-        <v>116</v>
+        <v>354</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +1012,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.9014084507042254</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L10">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1062,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7647058823529411</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C11">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.8962264150943396</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="L11">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="M11">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1112,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7567567567567568</v>
+        <v>0.751937984496124</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>388</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>388</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.8875</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L12">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="M12">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1162,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.748062015503876</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C13">
-        <v>386</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>386</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.8839285714285714</v>
+        <v>0.8962264150943396</v>
       </c>
       <c r="L13">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M13">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1212,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7301587301587301</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="C14">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="D14">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.8793103448275862</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L14">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,16 +1283,16 @@
         <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.8723404255319149</v>
+        <v>0.88125</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,13 +1312,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6949152542372882</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C16">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>0.8658536585365854</v>
+        <v>0.8671875</v>
       </c>
       <c r="L16">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="M16">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,13 +1362,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6510067114093959</v>
+        <v>0.7</v>
       </c>
       <c r="C17">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,13 +1412,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5892857142857143</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1397,19 +1430,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.8253968253968254</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L18">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="M18">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1421,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,13 +1462,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5466666666666666</v>
+        <v>0.6577181208053692</v>
       </c>
       <c r="C19">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1447,19 +1480,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.8</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1471,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1479,13 +1512,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5272727272727272</v>
+        <v>0.5892857142857143</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1497,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.7916666666666666</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1521,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1529,13 +1562,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4545454545454545</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1547,19 +1580,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.7692307692307693</v>
+        <v>0.8</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1571,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1579,13 +1612,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4285714285714285</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C22">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1597,19 +1630,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.7676470588235295</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L22">
-        <v>261</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>261</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1621,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1629,13 +1662,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2619047619047619</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C23">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="D23">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1647,19 +1680,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.7531380753138075</v>
+        <v>0.7794117647058824</v>
       </c>
       <c r="L23">
-        <v>180</v>
+        <v>265</v>
       </c>
       <c r="M23">
-        <v>180</v>
+        <v>265</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1671,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1679,13 +1712,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1823056300268097</v>
+        <v>0.4555555555555555</v>
       </c>
       <c r="C24">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D24">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1697,19 +1730,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>305</v>
+        <v>49</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>0.7528089887640449</v>
+        <v>0.775</v>
       </c>
       <c r="L24">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1721,47 +1754,95 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.3766233766233766</v>
+      </c>
+      <c r="C25">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>48</v>
+      </c>
       <c r="J25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25">
+        <v>0.7450980392156863</v>
+      </c>
+      <c r="L25">
+        <v>38</v>
+      </c>
+      <c r="M25">
+        <v>38</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.3375</v>
+      </c>
+      <c r="C26">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>53</v>
       </c>
-      <c r="K25">
-        <v>0.7457627118644068</v>
-      </c>
-      <c r="L25">
-        <v>220</v>
-      </c>
-      <c r="M25">
-        <v>220</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K26">
-        <v>0.7450980392156863</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1773,21 +1854,45 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.3174603174603174</v>
+      </c>
+      <c r="C27">
+        <v>80</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>172</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K27">
-        <v>0.7127659574468085</v>
+        <v>0.7364016736401674</v>
       </c>
       <c r="L27">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="M27">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1799,21 +1904,45 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.2091152815013405</v>
+      </c>
+      <c r="C28">
+        <v>78</v>
+      </c>
+      <c r="D28">
+        <v>78</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>295</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K28">
-        <v>0.6410256410256411</v>
+        <v>0.735593220338983</v>
       </c>
       <c r="L28">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="M28">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1825,21 +1954,45 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>28</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="C29">
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <v>32</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>268</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K29">
-        <v>0.6285714285714286</v>
+        <v>0.7303370786516854</v>
       </c>
       <c r="L29">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="M29">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1851,21 +2004,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K30">
-        <v>0.625</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1877,21 +2030,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K31">
-        <v>0.5777777777777777</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1903,21 +2056,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K32">
-        <v>0.5753424657534246</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L32">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1929,47 +2082,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K33">
-        <v>0.456140350877193</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L33">
+        <v>44</v>
+      </c>
+      <c r="M33">
+        <v>44</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>26</v>
-      </c>
-      <c r="M33">
-        <v>26</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>31</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K34">
-        <v>0.421875</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1981,7 +2134,163 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>37</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35">
+        <v>0.547945205479452</v>
+      </c>
+      <c r="L35">
+        <v>40</v>
+      </c>
+      <c r="M35">
+        <v>40</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K36">
+        <v>0.5409836065573771</v>
+      </c>
+      <c r="L36">
+        <v>33</v>
+      </c>
+      <c r="M36">
+        <v>33</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37">
+        <v>0.515625</v>
+      </c>
+      <c r="L37">
+        <v>33</v>
+      </c>
+      <c r="M37">
+        <v>33</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="L38">
+        <v>40</v>
+      </c>
+      <c r="M38">
+        <v>40</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K39">
+        <v>0.4915254237288136</v>
+      </c>
+      <c r="L39">
+        <v>29</v>
+      </c>
+      <c r="M39">
+        <v>29</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K40">
+        <v>0.2385321100917431</v>
+      </c>
+      <c r="L40">
+        <v>26</v>
+      </c>
+      <c r="M40">
+        <v>26</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
